--- a/documentacao/Tabela riscos/Tabela riscos TermoLABs.xlsx
+++ b/documentacao/Tabela riscos/Tabela riscos TermoLABs.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{030F2B10-26A6-44CA-A68B-E519D7A9012A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sérgio\Desktop\Bandtec\Git Novo Projeto\TermoLabs\documentacao\Tabela riscos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35450B8-41B9-4337-BF17-F586505E1C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -122,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,68 +297,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,7 +387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -671,95 +685,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="16" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="13" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-    </row>
-    <row r="3" spans="2:25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="22" t="s">
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="23" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="17" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-    </row>
-    <row r="4" spans="2:25">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -778,54 +799,54 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="18">
+      <c r="L4" s="5">
         <v>3</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="8" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="8" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="2:25">
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -844,54 +865,54 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="7">
+      <c r="L6" s="19">
         <v>2</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="8" t="s">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="2:25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25">
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -910,28 +931,28 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="5">
+      <c r="L8" s="23">
         <v>6</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="3" t="s">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="2:25">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -942,22 +963,22 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="2:25">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -976,28 +997,28 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="5">
+      <c r="L10" s="23">
         <v>6</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="3" t="s">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="2:25">
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1008,22 +1029,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="2:25">
+      <c r="Q11" s="13"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1042,54 +1063,54 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="7">
+      <c r="L12" s="19">
         <v>2</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="13"/>
+      <c r="R12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="2:25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-    </row>
-    <row r="14" spans="2:25">
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1108,28 +1129,28 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="7">
+      <c r="L14" s="19">
         <v>2</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="2:25">
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1140,30 +1161,30 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="2:25">
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1174,54 +1195,54 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="5">
+      <c r="L16" s="23">
         <v>6</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="2:25">
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="2:25">
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1247,7 +1268,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1275,14 +1296,42 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R16:Y17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="L16:N17"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="R12:Y13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="F14:H15"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="R14:Y15"/>
+    <mergeCell ref="R4:Y5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="L12:N13"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="R6:Y7"/>
+    <mergeCell ref="R8:Y9"/>
+    <mergeCell ref="R10:Y11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:K11"/>
+    <mergeCell ref="L10:N11"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:N9"/>
     <mergeCell ref="O8:Q9"/>
     <mergeCell ref="O4:Q5"/>
     <mergeCell ref="R2:Y3"/>
@@ -1299,42 +1348,14 @@
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="F8:H9"/>
-    <mergeCell ref="I8:K9"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="R4:Y5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="I12:K13"/>
-    <mergeCell ref="L12:N13"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="R6:Y7"/>
-    <mergeCell ref="R8:Y9"/>
-    <mergeCell ref="R10:Y11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I10:K11"/>
-    <mergeCell ref="L10:N11"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R12:Y13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="F14:H15"/>
-    <mergeCell ref="I14:K15"/>
-    <mergeCell ref="L14:N15"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="R14:Y15"/>
-    <mergeCell ref="R16:Y17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="L16:N17"/>
-    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
